--- a/reactive/routers_buffer_dynamic_bit_complement.xlsx
+++ b/reactive/routers_buffer_dynamic_bit_complement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015B12D-B891-4F48-B840-8AF8D77C1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A2379-454D-4A0F-BC9B-9DE9201A4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1056" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1284" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -118,17 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2213,7 +2203,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="C22" sqref="C22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reactive/routers_buffer_dynamic_bit_complement.xlsx
+++ b/reactive/routers_buffer_dynamic_bit_complement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A2379-454D-4A0F-BC9B-9DE9201A4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DF2E06-AC68-41B6-8933-2F823BC47C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1284" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="23616" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>tsr</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2202,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,9 +2742,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDBBFF-F324-465B-ADE3-BADA4944462B}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3480,6 +3485,47 @@
         <v>2.8489985124100002E-4</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>2.1394877789410001E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:K22" si="0">AVERAGE(D2:D21)</f>
+        <v>2.2209421173664999E-4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.4442691414280004E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.4442691414280004E-4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2.1394877789410001E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2.6297214992045001E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>2.1394877789410001E-4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2.6685432574390008E-4</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>2.6685432574390008E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
